--- a/text/画面定義書_M0007納品画面.xlsx
+++ b/text/画面定義書_M0007納品画面.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7703E8A1-4C09-1642-8E6E-AE33FEE0EE1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2991296C-6A76-4705-87BC-53ED4C97B25B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6280" yWindow="500" windowWidth="16360" windowHeight="15940" tabRatio="702" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="702" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面定義" sheetId="1" r:id="rId1"/>
@@ -434,7 +434,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -445,7 +445,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -483,7 +483,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -624,7 +624,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -727,7 +727,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -849,7 +849,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -860,7 +860,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1027,17 +1027,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1046,7 +1046,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1054,20 +1054,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1076,7 +1076,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1084,7 +1084,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1092,7 +1092,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1100,7 +1100,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1289,7 +1289,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1906,60 +1906,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24.83203125" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="24.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" customWidth="1"/>
     <col min="4" max="4" width="33.33203125" customWidth="1"/>
-    <col min="5" max="5" width="50.83203125" customWidth="1"/>
+    <col min="5" max="5" width="50.77734375" customWidth="1"/>
     <col min="6" max="6" width="33" customWidth="1"/>
-    <col min="7" max="7" width="50.5" customWidth="1"/>
+    <col min="7" max="7" width="50.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F3" s="10"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
     </row>
-    <row r="17" spans="6:6">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F17" s="9"/>
     </row>
-    <row r="18" spans="6:6">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F18" s="11"/>
     </row>
-    <row r="19" spans="6:6">
+    <row r="19" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F19" s="11"/>
     </row>
-    <row r="20" spans="6:6">
+    <row r="20" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F20" s="12"/>
     </row>
-    <row r="26" spans="6:6" ht="45">
+    <row r="26" spans="6:6" ht="39.6" x14ac:dyDescent="0.2">
       <c r="F26" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B46" s="2"/>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>73</v>
       </c>
@@ -1968,13 +1968,13 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
         <v>2</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="23"/>
       <c r="B53" s="24"/>
       <c r="C53" s="24"/>
@@ -2006,12 +2006,12 @@
       <c r="F53" s="24"/>
       <c r="G53" s="24"/>
     </row>
-    <row r="54" spans="1:7" s="17" customFormat="1">
+    <row r="54" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="5" customFormat="1" ht="45">
+    <row r="55" spans="1:7" s="5" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A55" s="14">
         <v>1</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="5" customFormat="1">
+    <row r="56" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <v>2</v>
       </c>
@@ -2055,7 +2055,7 @@
       </c>
       <c r="G56" s="6"/>
     </row>
-    <row r="57" spans="1:7" s="5" customFormat="1">
+    <row r="57" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
         <v>3</v>
       </c>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="G57" s="6"/>
     </row>
-    <row r="58" spans="1:7" s="5" customFormat="1">
+    <row r="58" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="19"/>
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
@@ -2085,12 +2085,12 @@
       <c r="F58" s="20"/>
       <c r="G58" s="20"/>
     </row>
-    <row r="59" spans="1:7" s="17" customFormat="1">
+    <row r="59" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="16" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="5" customFormat="1">
+    <row r="60" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
         <v>4</v>
       </c>
@@ -2111,7 +2111,7 @@
       </c>
       <c r="G60" s="6"/>
     </row>
-    <row r="61" spans="1:7" s="5" customFormat="1" ht="44" customHeight="1">
+    <row r="61" spans="1:7" s="5" customFormat="1" ht="43.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
         <v>5</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="5" customFormat="1">
+    <row r="62" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>6</v>
       </c>
@@ -2155,7 +2155,7 @@
       </c>
       <c r="G62" s="7"/>
     </row>
-    <row r="63" spans="1:7" s="5" customFormat="1">
+    <row r="63" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
         <v>7</v>
       </c>
@@ -2176,7 +2176,7 @@
       </c>
       <c r="G63" s="6"/>
     </row>
-    <row r="64" spans="1:7" s="5" customFormat="1">
+    <row r="64" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
         <v>8</v>
       </c>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="G64" s="6"/>
     </row>
-    <row r="65" spans="1:7" s="5" customFormat="1">
+    <row r="65" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
         <v>9</v>
       </c>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="G65" s="6"/>
     </row>
-    <row r="66" spans="1:7" s="5" customFormat="1">
+    <row r="66" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
         <v>10</v>
       </c>
@@ -2239,7 +2239,7 @@
       </c>
       <c r="G66" s="6"/>
     </row>
-    <row r="67" spans="1:7" s="5" customFormat="1">
+    <row r="67" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
         <v>11</v>
       </c>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="G67" s="6"/>
     </row>
-    <row r="68" spans="1:7" s="5" customFormat="1" ht="67" customHeight="1">
+    <row r="68" spans="1:7" s="5" customFormat="1" ht="67.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
         <v>12</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="5" customFormat="1" ht="67" customHeight="1">
+    <row r="69" spans="1:7" s="5" customFormat="1" ht="67.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
         <v>13</v>
       </c>
@@ -2306,17 +2306,17 @@
         <v>83</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="17" customFormat="1">
+    <row r="73" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="16" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:7" s="5" customFormat="1" ht="52.5" customHeight="1">
+    <row r="74" spans="1:7" s="5" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
         <v>14</v>
       </c>
@@ -2339,28 +2339,28 @@
         <v>51</v>
       </c>
     </row>
-    <row r="78" spans="1:7" s="21" customFormat="1">
+    <row r="78" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="21" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="21" customFormat="1">
+    <row r="79" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="21" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="80" spans="1:7" s="21" customFormat="1">
+    <row r="80" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="21" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="81" spans="2:2" s="22" customFormat="1"/>
-    <row r="82" spans="2:2" s="22" customFormat="1">
+    <row r="81" spans="2:2" s="22" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="82" spans="2:2" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="22" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="83" spans="2:2" s="22" customFormat="1"/>
+    <row r="83" spans="2:2" s="22" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2373,23 +2373,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2398,7 +2398,7 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2453,21 +2453,21 @@
   <dimension ref="B1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:L4"/>
+      <selection activeCell="B6" sqref="B6:L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="8.83203125" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
@@ -2484,7 +2484,7 @@
       <c r="K3" s="25"/>
       <c r="L3" s="25"/>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
@@ -2501,7 +2501,7 @@
       <c r="K4" s="25"/>
       <c r="L4" s="25"/>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="25" t="s">
         <v>10</v>
       </c>
@@ -2516,7 +2516,7 @@
       <c r="K5" s="25"/>
       <c r="L5" s="25"/>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="26" t="s">
         <v>85</v>
       </c>
@@ -2531,7 +2531,7 @@
       <c r="K6" s="27"/>
       <c r="L6" s="27"/>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
@@ -2544,7 +2544,7 @@
       <c r="K7" s="27"/>
       <c r="L7" s="27"/>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -2557,7 +2557,7 @@
       <c r="K8" s="27"/>
       <c r="L8" s="27"/>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
@@ -2570,7 +2570,7 @@
       <c r="K9" s="27"/>
       <c r="L9" s="27"/>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
@@ -2583,7 +2583,7 @@
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
@@ -2596,7 +2596,7 @@
       <c r="K11" s="27"/>
       <c r="L11" s="27"/>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
@@ -2609,7 +2609,7 @@
       <c r="K12" s="27"/>
       <c r="L12" s="27"/>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
@@ -2622,7 +2622,7 @@
       <c r="K13" s="27"/>
       <c r="L13" s="27"/>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
@@ -2635,7 +2635,7 @@
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
@@ -2648,7 +2648,7 @@
       <c r="K15" s="27"/>
       <c r="L15" s="27"/>
     </row>
-    <row r="16" spans="2:12">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
@@ -2661,7 +2661,7 @@
       <c r="K16" s="27"/>
       <c r="L16" s="27"/>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
@@ -2674,7 +2674,7 @@
       <c r="K17" s="27"/>
       <c r="L17" s="27"/>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
@@ -2687,7 +2687,7 @@
       <c r="K18" s="27"/>
       <c r="L18" s="27"/>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="27"/>
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
@@ -2700,7 +2700,7 @@
       <c r="K19" s="27"/>
       <c r="L19" s="27"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="27"/>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
@@ -2713,7 +2713,7 @@
       <c r="K20" s="27"/>
       <c r="L20" s="27"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
@@ -2726,7 +2726,7 @@
       <c r="K21" s="27"/>
       <c r="L21" s="27"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
@@ -2739,7 +2739,7 @@
       <c r="K22" s="27"/>
       <c r="L22" s="27"/>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
@@ -2769,21 +2769,21 @@
   <dimension ref="B1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="C4" sqref="C4:L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="8.83203125" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
@@ -2800,7 +2800,7 @@
       <c r="K3" s="25"/>
       <c r="L3" s="25"/>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
@@ -2817,7 +2817,7 @@
       <c r="K4" s="25"/>
       <c r="L4" s="25"/>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="25" t="s">
         <v>10</v>
       </c>
@@ -2832,7 +2832,7 @@
       <c r="K5" s="25"/>
       <c r="L5" s="25"/>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="26" t="s">
         <v>86</v>
       </c>
@@ -2847,7 +2847,7 @@
       <c r="K6" s="27"/>
       <c r="L6" s="27"/>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
@@ -2860,7 +2860,7 @@
       <c r="K7" s="27"/>
       <c r="L7" s="27"/>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -2873,7 +2873,7 @@
       <c r="K8" s="27"/>
       <c r="L8" s="27"/>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
@@ -2886,7 +2886,7 @@
       <c r="K9" s="27"/>
       <c r="L9" s="27"/>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
@@ -2899,7 +2899,7 @@
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
@@ -2912,7 +2912,7 @@
       <c r="K11" s="27"/>
       <c r="L11" s="27"/>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
@@ -2925,7 +2925,7 @@
       <c r="K12" s="27"/>
       <c r="L12" s="27"/>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
@@ -2938,7 +2938,7 @@
       <c r="K13" s="27"/>
       <c r="L13" s="27"/>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
@@ -2951,7 +2951,7 @@
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
@@ -2964,7 +2964,7 @@
       <c r="K15" s="27"/>
       <c r="L15" s="27"/>
     </row>
-    <row r="16" spans="2:12">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
@@ -2977,7 +2977,7 @@
       <c r="K16" s="27"/>
       <c r="L16" s="27"/>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
@@ -2990,7 +2990,7 @@
       <c r="K17" s="27"/>
       <c r="L17" s="27"/>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
@@ -3003,7 +3003,7 @@
       <c r="K18" s="27"/>
       <c r="L18" s="27"/>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="27"/>
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
@@ -3016,7 +3016,7 @@
       <c r="K19" s="27"/>
       <c r="L19" s="27"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="27"/>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
@@ -3029,7 +3029,7 @@
       <c r="K20" s="27"/>
       <c r="L20" s="27"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
@@ -3059,21 +3059,21 @@
   <dimension ref="B1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B6" sqref="B6:L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="8.83203125" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
@@ -3090,7 +3090,7 @@
       <c r="K3" s="25"/>
       <c r="L3" s="25"/>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
@@ -3107,7 +3107,7 @@
       <c r="K4" s="25"/>
       <c r="L4" s="25"/>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="25" t="s">
         <v>10</v>
       </c>
@@ -3122,7 +3122,7 @@
       <c r="K5" s="25"/>
       <c r="L5" s="25"/>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="26" t="s">
         <v>90</v>
       </c>
@@ -3137,7 +3137,7 @@
       <c r="K6" s="27"/>
       <c r="L6" s="27"/>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
@@ -3150,7 +3150,7 @@
       <c r="K7" s="27"/>
       <c r="L7" s="27"/>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -3163,7 +3163,7 @@
       <c r="K8" s="27"/>
       <c r="L8" s="27"/>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
@@ -3176,7 +3176,7 @@
       <c r="K9" s="27"/>
       <c r="L9" s="27"/>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
@@ -3189,7 +3189,7 @@
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
@@ -3202,7 +3202,7 @@
       <c r="K11" s="27"/>
       <c r="L11" s="27"/>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
@@ -3215,7 +3215,7 @@
       <c r="K12" s="27"/>
       <c r="L12" s="27"/>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
@@ -3228,7 +3228,7 @@
       <c r="K13" s="27"/>
       <c r="L13" s="27"/>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
@@ -3241,7 +3241,7 @@
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
@@ -3254,7 +3254,7 @@
       <c r="K15" s="27"/>
       <c r="L15" s="27"/>
     </row>
-    <row r="16" spans="2:12">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
@@ -3267,7 +3267,7 @@
       <c r="K16" s="27"/>
       <c r="L16" s="27"/>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
@@ -3280,7 +3280,7 @@
       <c r="K17" s="27"/>
       <c r="L17" s="27"/>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
@@ -3293,7 +3293,7 @@
       <c r="K18" s="27"/>
       <c r="L18" s="27"/>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="27"/>
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
@@ -3306,7 +3306,7 @@
       <c r="K19" s="27"/>
       <c r="L19" s="27"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="27"/>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
@@ -3319,7 +3319,7 @@
       <c r="K20" s="27"/>
       <c r="L20" s="27"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
@@ -3332,7 +3332,7 @@
       <c r="K21" s="27"/>
       <c r="L21" s="27"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
@@ -3345,7 +3345,7 @@
       <c r="K22" s="27"/>
       <c r="L22" s="27"/>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
@@ -3358,7 +3358,7 @@
       <c r="K23" s="27"/>
       <c r="L23" s="27"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
@@ -3371,7 +3371,7 @@
       <c r="K24" s="27"/>
       <c r="L24" s="27"/>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
@@ -3384,7 +3384,7 @@
       <c r="K25" s="27"/>
       <c r="L25" s="27"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
@@ -3397,7 +3397,7 @@
       <c r="K26" s="27"/>
       <c r="L26" s="27"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
@@ -3427,21 +3427,21 @@
   <dimension ref="B1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C4" sqref="C4:L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="8.83203125" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
@@ -3458,7 +3458,7 @@
       <c r="K3" s="25"/>
       <c r="L3" s="25"/>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
@@ -3475,7 +3475,7 @@
       <c r="K4" s="25"/>
       <c r="L4" s="25"/>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="25" t="s">
         <v>10</v>
       </c>
@@ -3490,7 +3490,7 @@
       <c r="K5" s="25"/>
       <c r="L5" s="25"/>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="26" t="s">
         <v>94</v>
       </c>
@@ -3505,7 +3505,7 @@
       <c r="K6" s="27"/>
       <c r="L6" s="27"/>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
@@ -3518,7 +3518,7 @@
       <c r="K7" s="27"/>
       <c r="L7" s="27"/>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -3531,7 +3531,7 @@
       <c r="K8" s="27"/>
       <c r="L8" s="27"/>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
@@ -3544,7 +3544,7 @@
       <c r="K9" s="27"/>
       <c r="L9" s="27"/>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
@@ -3557,7 +3557,7 @@
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
@@ -3570,7 +3570,7 @@
       <c r="K11" s="27"/>
       <c r="L11" s="27"/>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
@@ -3583,7 +3583,7 @@
       <c r="K12" s="27"/>
       <c r="L12" s="27"/>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
@@ -3596,7 +3596,7 @@
       <c r="K13" s="27"/>
       <c r="L13" s="27"/>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
@@ -3609,7 +3609,7 @@
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
@@ -3622,7 +3622,7 @@
       <c r="K15" s="27"/>
       <c r="L15" s="27"/>
     </row>
-    <row r="16" spans="2:12">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
@@ -3635,7 +3635,7 @@
       <c r="K16" s="27"/>
       <c r="L16" s="27"/>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
